--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Quarterly Results of Atishay(in Rs. Cr.)</t>
   </si>
@@ -188,6 +188,111 @@
   </si>
   <si>
     <t>Dec '24</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>6.44</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>7.81</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>5.66</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>7.73</t>
+  </si>
+  <si>
+    <t>5.82</t>
+  </si>
+  <si>
+    <t>7.75</t>
+  </si>
+  <si>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>6.93</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>6.13</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>6.79</t>
+  </si>
+  <si>
+    <t>6.39</t>
+  </si>
+  <si>
+    <t>6.97</t>
+  </si>
+  <si>
+    <t>6.49</t>
+  </si>
+  <si>
+    <t>6.43</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>6.72</t>
+  </si>
+  <si>
+    <t>7.30</t>
+  </si>
+  <si>
+    <t>11.76</t>
+  </si>
+  <si>
+    <t>17.47</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>13.01</t>
+  </si>
+  <si>
+    <t>15.22</t>
   </si>
 </sst>
 </file>
@@ -626,8 +731,8 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>4.94</v>
+      <c r="B2" t="s">
+        <v>58</v>
       </c>
       <c r="C2">
         <v>4.94</v>
@@ -636,7 +741,7 @@
         <v>4.52</v>
       </c>
       <c r="E2">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F2">
         <v>0.02</v>
@@ -697,8 +802,8 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
-        <v>6.44</v>
+      <c r="B3" t="s">
+        <v>59</v>
       </c>
       <c r="C3">
         <v>6.44</v>
@@ -707,7 +812,7 @@
         <v>2.38</v>
       </c>
       <c r="E3">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F3">
         <v>-0.11</v>
@@ -752,24 +857,24 @@
         <v>10.98</v>
       </c>
       <c r="T3">
-        <v>0.6605882352941176</v>
+        <v>0.66</v>
       </c>
       <c r="U3">
-        <v>0.6570588235294117</v>
+        <v>0.66</v>
       </c>
       <c r="V3">
-        <v>0.6605882352941176</v>
+        <v>0.66</v>
       </c>
       <c r="W3">
-        <v>0.6570588235294117</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>3.95</v>
+      <c r="B4" t="s">
+        <v>60</v>
       </c>
       <c r="C4">
         <v>3.95</v>
@@ -839,8 +944,8 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>7.81</v>
+      <c r="B5" t="s">
+        <v>61</v>
       </c>
       <c r="C5">
         <v>7.81</v>
@@ -910,8 +1015,8 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
-        <v>3.62</v>
+      <c r="B6" t="s">
+        <v>62</v>
       </c>
       <c r="C6">
         <v>3.62</v>
@@ -981,8 +1086,8 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
-        <v>5.66</v>
+      <c r="B7" t="s">
+        <v>63</v>
       </c>
       <c r="C7">
         <v>5.66</v>
@@ -1052,8 +1157,8 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
-        <v>5.64</v>
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
       <c r="C8">
         <v>5.64</v>
@@ -1123,8 +1228,8 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
-        <v>7.73</v>
+      <c r="B9" t="s">
+        <v>65</v>
       </c>
       <c r="C9">
         <v>7.73</v>
@@ -1194,8 +1299,8 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
-        <v>5.82</v>
+      <c r="B10" t="s">
+        <v>66</v>
       </c>
       <c r="C10">
         <v>5.82</v>
@@ -1265,8 +1370,8 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
-        <v>7.75</v>
+      <c r="B11" t="s">
+        <v>67</v>
       </c>
       <c r="C11">
         <v>7.75</v>
@@ -1275,7 +1380,7 @@
         <v>3.53</v>
       </c>
       <c r="E11">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F11">
         <v>-0.28</v>
@@ -1336,8 +1441,8 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
-        <v>5.54</v>
+      <c r="B12" t="s">
+        <v>68</v>
       </c>
       <c r="C12">
         <v>5.54</v>
@@ -1407,8 +1512,8 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
-        <v>6.93</v>
+      <c r="B13" t="s">
+        <v>69</v>
       </c>
       <c r="C13">
         <v>6.93</v>
@@ -1478,8 +1583,8 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
-        <v>5.12</v>
+      <c r="B14" t="s">
+        <v>70</v>
       </c>
       <c r="C14">
         <v>5.12</v>
@@ -1488,7 +1593,7 @@
         <v>2.65</v>
       </c>
       <c r="E14">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F14">
         <v>0.19</v>
@@ -1549,8 +1654,8 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
-        <v>6.13</v>
+      <c r="B15" t="s">
+        <v>71</v>
       </c>
       <c r="C15">
         <v>6.13</v>
@@ -1620,8 +1725,8 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
-        <v>5</v>
+      <c r="B16" t="s">
+        <v>72</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1691,8 +1796,8 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
-        <v>6.79</v>
+      <c r="B17" t="s">
+        <v>73</v>
       </c>
       <c r="C17">
         <v>6.79</v>
@@ -1762,8 +1867,8 @@
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
-        <v>6.39</v>
+      <c r="B18" t="s">
+        <v>74</v>
       </c>
       <c r="C18">
         <v>6.39</v>
@@ -1833,8 +1938,8 @@
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
-        <v>6.97</v>
+      <c r="B19" t="s">
+        <v>75</v>
       </c>
       <c r="C19">
         <v>6.97</v>
@@ -1843,7 +1948,7 @@
         <v>4.24</v>
       </c>
       <c r="E19">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F19">
         <v>0.02</v>
@@ -1904,8 +2009,8 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20">
-        <v>6.49</v>
+      <c r="B20" t="s">
+        <v>76</v>
       </c>
       <c r="C20">
         <v>6.49</v>
@@ -1975,8 +2080,8 @@
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
-        <v>6.43</v>
+      <c r="B21" t="s">
+        <v>77</v>
       </c>
       <c r="C21">
         <v>6.43</v>
@@ -2046,8 +2151,8 @@
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>4.01</v>
+      <c r="B22" t="s">
+        <v>78</v>
       </c>
       <c r="C22">
         <v>4.01</v>
@@ -2117,8 +2222,8 @@
       <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23">
-        <v>4.58</v>
+      <c r="B23" t="s">
+        <v>79</v>
       </c>
       <c r="C23">
         <v>4.58</v>
@@ -2160,7 +2265,7 @@
         <v>0.23</v>
       </c>
       <c r="P23">
-        <v>0.2844117647058824</v>
+        <v>0.28</v>
       </c>
       <c r="Q23">
         <v>0.23</v>
@@ -2188,8 +2293,8 @@
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B24">
-        <v>4.88</v>
+      <c r="B24" t="s">
+        <v>80</v>
       </c>
       <c r="C24">
         <v>4.88</v>
@@ -2259,8 +2364,8 @@
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25">
-        <v>6.29</v>
+      <c r="B25" t="s">
+        <v>81</v>
       </c>
       <c r="C25">
         <v>6.29</v>
@@ -2269,7 +2374,7 @@
         <v>3.95</v>
       </c>
       <c r="E25">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F25">
         <v>0.54</v>
@@ -2330,8 +2435,8 @@
       <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26">
-        <v>3.55</v>
+      <c r="B26" t="s">
+        <v>82</v>
       </c>
       <c r="C26">
         <v>3.55</v>
@@ -2340,10 +2445,10 @@
         <v>2.72</v>
       </c>
       <c r="E26">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F26">
-        <v>-0.01636363636363638</v>
+        <v>-0.02</v>
       </c>
       <c r="G26">
         <v>0.97</v>
@@ -2401,8 +2506,8 @@
       <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B27">
-        <v>5.1</v>
+      <c r="B27" t="s">
+        <v>83</v>
       </c>
       <c r="C27">
         <v>5.1</v>
@@ -2411,7 +2516,7 @@
         <v>3.08</v>
       </c>
       <c r="E27">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F27">
         <v>0.02</v>
@@ -2472,8 +2577,8 @@
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28">
-        <v>6.01</v>
+      <c r="B28" t="s">
+        <v>84</v>
       </c>
       <c r="C28">
         <v>6.01</v>
@@ -2482,10 +2587,10 @@
         <v>3.82</v>
       </c>
       <c r="E28">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F28">
-        <v>-0.01636363636363638</v>
+        <v>-0.02</v>
       </c>
       <c r="G28">
         <v>1.28</v>
@@ -2543,14 +2648,14 @@
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B29">
-        <v>6.8</v>
+      <c r="B29" t="s">
+        <v>85</v>
       </c>
       <c r="C29">
         <v>6.8</v>
       </c>
       <c r="D29">
-        <v>3.7296875</v>
+        <v>3.73</v>
       </c>
       <c r="E29">
         <v>3.95</v>
@@ -2614,14 +2719,14 @@
       <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B30">
-        <v>6.72</v>
+      <c r="B30" t="s">
+        <v>86</v>
       </c>
       <c r="C30">
         <v>6.72</v>
       </c>
       <c r="D30">
-        <v>3.7296875</v>
+        <v>3.73</v>
       </c>
       <c r="E30">
         <v>4.73</v>
@@ -2685,14 +2790,14 @@
       <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B31">
-        <v>7.3</v>
+      <c r="B31" t="s">
+        <v>87</v>
       </c>
       <c r="C31">
         <v>7.3</v>
       </c>
       <c r="D31">
-        <v>3.7296875</v>
+        <v>3.73</v>
       </c>
       <c r="E31">
         <v>3.46</v>
@@ -2756,8 +2861,8 @@
       <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B32">
-        <v>11.76</v>
+      <c r="B32" t="s">
+        <v>88</v>
       </c>
       <c r="C32">
         <v>11.76</v>
@@ -2766,7 +2871,7 @@
         <v>5.97</v>
       </c>
       <c r="E32">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F32">
         <v>-0.9</v>
@@ -2827,8 +2932,8 @@
       <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="B33">
-        <v>17.47</v>
+      <c r="B33" t="s">
+        <v>89</v>
       </c>
       <c r="C33">
         <v>17.47</v>
@@ -2837,7 +2942,7 @@
         <v>10.48</v>
       </c>
       <c r="E33">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F33">
         <v>0.47</v>
@@ -2898,8 +3003,8 @@
       <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B34">
-        <v>10.07</v>
+      <c r="B34" t="s">
+        <v>90</v>
       </c>
       <c r="C34">
         <v>10.07</v>
@@ -2908,7 +3013,7 @@
         <v>5.74</v>
       </c>
       <c r="E34">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F34">
         <v>-0.64</v>
@@ -2969,8 +3074,8 @@
       <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="B35">
-        <v>13.01</v>
+      <c r="B35" t="s">
+        <v>91</v>
       </c>
       <c r="C35">
         <v>13.01</v>
@@ -2979,7 +3084,7 @@
         <v>7.49</v>
       </c>
       <c r="E35">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F35">
         <v>-0.07000000000000001</v>
@@ -3040,8 +3145,8 @@
       <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="B36">
-        <v>15.22</v>
+      <c r="B36" t="s">
+        <v>92</v>
       </c>
       <c r="C36">
         <v>15.22</v>
@@ -3050,7 +3155,7 @@
         <v>7.49</v>
       </c>
       <c r="E36">
-        <v>0.7804761904761905</v>
+        <v>0.78</v>
       </c>
       <c r="F36">
         <v>1.18</v>
